--- a/input/HU/parameters.xlsx
+++ b/input/HU/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/HU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E60CBE-560A-264A-B38D-783956F23960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA601A2C-0D94-D148-AEE7-7BBA47AC7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>KEY</t>
   </si>
@@ -95,19 +95,77 @@
   </si>
   <si>
     <t>48</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>TAXDB_REGIMES</t>
+  </si>
+  <si>
+    <t>MIN_START_YEAR</t>
+  </si>
+  <si>
+    <t>MAX_START_YEAR</t>
+  </si>
+  <si>
+    <t>MIN_START_YEAR_TRAINING</t>
+  </si>
+  <si>
+    <t>MAX_START_YEAR_TRAINING</t>
+  </si>
+  <si>
+    <t>MIN_CAPITAL_INCOME_PER_MONTH</t>
+  </si>
+  <si>
+    <t>MAX_CAPITAL_INCOME_PER_MONTH</t>
+  </si>
+  <si>
+    <t>MIN_PERSONAL_PENSION_PER_MONTH</t>
+  </si>
+  <si>
+    <t>MAX_PERSONAL_PENSION_PER_MONTH</t>
+  </si>
+  <si>
+    <t>MAX_CHILD_AGE_FOR_FORMAL_CARE</t>
+  </si>
+  <si>
+    <t>MIN_AGE_MATERNITY</t>
+  </si>
+  <si>
+    <t>MAX_AGE_MATERNITY</t>
+  </si>
+  <si>
+    <t>BASE_PRICE_YEAR</t>
+  </si>
+  <si>
+    <t>PROB_NEWBORN_IS_MALE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -142,6 +200,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B22"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -598,8 +659,8 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,6 +692,118 @@
         <v>22</v>
       </c>
       <c r="B22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="7">
         <v>0.5</v>
       </c>
     </row>

--- a/input/HU/parameters.xlsx
+++ b/input/HU/parameters.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/HU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA601A2C-0D94-D148-AEE7-7BBA47AC7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44D313-3370-A948-891E-B8D43CA0AEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>KEY</t>
   </si>
@@ -140,13 +141,133 @@
   </si>
   <si>
     <t>PROB_NEWBORN_IS_MALE</t>
+  </si>
+  <si>
+    <t>SAVINGS_RATE</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Minimum age to have non-employment, non-benefit income</t>
+  </si>
+  <si>
+    <t>Maximum number of labour hours allowed in a week</t>
+  </si>
+  <si>
+    <t>Total hours in a week (used to calculate leisure in labour supply)</t>
+  </si>
+  <si>
+    <t>If true, generates random weekly labour supply hours within each bracket; if false, uses fixed hours for all persons</t>
+  </si>
+  <si>
+    <t>Age at which a person becomes reference person of their own benefit unit</t>
+  </si>
+  <si>
+    <t>Minimum age to leave full-time education</t>
+  </si>
+  <si>
+    <t>Maximum age to remain in continuous education</t>
+  </si>
+  <si>
+    <t>Maximum age to enter education</t>
+  </si>
+  <si>
+    <t>Minimum age to consider retirement</t>
+  </si>
+  <si>
+    <t>Default retirement age (if pension included but retirement decision not modeled)</t>
+  </si>
+  <si>
+    <t>Minimum age to receive formal social care</t>
+  </si>
+  <si>
+    <t>Minimum age for flexible labour supply eligibility</t>
+  </si>
+  <si>
+    <t>Maximum age for flexible labour supply eligibility</t>
+  </si>
+  <si>
+    <t>Proportion of wealth to annuitise at retirement</t>
+  </si>
+  <si>
+    <t>Assumed annuity rate of return</t>
+  </si>
+  <si>
+    <t>Minimum weekly hours defining full-time employment</t>
+  </si>
+  <si>
+    <t>Minimum possible hourly wage</t>
+  </si>
+  <si>
+    <t>Maximum possible hourly wage</t>
+  </si>
+  <si>
+    <t>Maximum number of hours of formal care per week</t>
+  </si>
+  <si>
+    <t>Maximum number of hours of informal care per week</t>
+  </si>
+  <si>
+    <t>Maximum share of earnings payable as childcare</t>
+  </si>
+  <si>
+    <t>Number of tax/benefit regimes supported</t>
+  </si>
+  <si>
+    <t>Minimum allowed simulation start year (oldest initial population)</t>
+  </si>
+  <si>
+    <t>Maximum allowed simulation start year (most recent initial population)</t>
+  </si>
+  <si>
+    <t>Minimum allowed training start year</t>
+  </si>
+  <si>
+    <t>Maximum allowed training start year</t>
+  </si>
+  <si>
+    <t>Minimum capital income per month</t>
+  </si>
+  <si>
+    <t>Maximum capital income per month</t>
+  </si>
+  <si>
+    <t>Minimum pension income per month</t>
+  </si>
+  <si>
+    <t>Maximum pension income per month</t>
+  </si>
+  <si>
+    <t>Maximum age of child eligible for formal care</t>
+  </si>
+  <si>
+    <t>Minimum age a person can give birth</t>
+  </si>
+  <si>
+    <t>Maximum age a person can give birth</t>
+  </si>
+  <si>
+    <t>Base year for model parameters (prices)</t>
+  </si>
+  <si>
+    <t>Probability a newborn is male</t>
+  </si>
+  <si>
+    <t>Country-specific savings rate</t>
+  </si>
+  <si>
+    <t>This file is used to rewrite the following country-specific parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,10 +282,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -188,21 +319,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,10 +653,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -531,7 +664,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -539,7 +672,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -555,7 +688,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -659,7 +792,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -696,119 +829,451 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="1">
         <v>2011</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="1">
         <v>2019</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="1">
         <v>2019</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="1">
         <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="1">
         <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="1">
         <v>2015</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC284C4C-9862-E248-B96D-6B4A96CFA365}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/HU/parameters.xlsx
+++ b/input/HU/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/HU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44D313-3370-A948-891E-B8D43CA0AEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66629A4-0F45-004A-ADB1-B20ECC452272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23200" yWindow="3300" windowWidth="21340" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>KEY</t>
   </si>
@@ -261,12 +261,39 @@
   </si>
   <si>
     <t>This file is used to rewrite the following country-specific parameters</t>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_HU2_HI_INCOME</t>
+  </si>
+  <si>
+    <t>67th percentile observed in the EM data for 2018</t>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_HU2_LO_INCOME</t>
+  </si>
+  <si>
+    <t>33rd percentile observed in the EM data for 2018</t>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_HU2_MID_AGE</t>
+  </si>
+  <si>
+    <t>mid age of EM income data used in KeyFunctionHU2</t>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_HU2_INCOME_REF_YEAR</t>
+  </si>
+  <si>
+    <t>year of EM income data used in KeyFunctionHU2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,6 +363,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,6 +976,38 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="10">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>2018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -956,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC284C4C-9862-E248-B96D-6B4A96CFA365}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1273,6 +1333,38 @@
         <v>78</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
